--- a/pred_ohlcv/54_21/2020-01-21 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 QTUM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>14294.56344556</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>14294.56344556</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>15776.54534556001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>15781.05956677001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>15780.81446677001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>12740.84626677001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>12428.73266677001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>12922.20176677001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>12922.20176677001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>12499.91656677001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>12499.91656677001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>11168.09866677001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>11168.09866677001</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>11168.09866677001</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>11239.99866677001</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>13036.29986677</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>13011.29986677</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>14350.90622649001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>12382.86662649001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>12383.79292649</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>12168.08242649001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>12168.08242649001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>12168.08242649001</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>12168.08242649001</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>11998.52722649</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>11988.03922649001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>11738.03922649001</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>11736.33082649001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>11581.80082649001</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>12721.80482649001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>15103.07852649</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>15049.97152649</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>15049.97152649</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>15307.50567173</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>15252.50567173</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>15228.10217173</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>13975.27447173</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>14123.37447173</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>14123.37447173</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>14128.29237173</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>12868.98047173</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>12659.81207173</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>11659.81207173</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>9602.737951800003</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>2195.657738910004</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>2287.701338910004</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>2258.436238910004</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>2221.280638910004</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>4471.280638910004</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>4275.643638910004</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>4570.989638910005</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>3424.098938910005</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>3460.027638910005</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>5094.918638910005</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>5094.918638910005</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>5094.918638910005</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>5094.918638910005</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>5166.456538910005</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>5690.045538910005</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>5690.045538910005</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>5819.253038910006</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>5793.753038910006</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>6055.696638910005</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>6355.786638910005</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>6355.786638910005</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>6355.786638910005</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>6355.786638910005</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>6355.786638910005</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>5950.957338910005</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>5950.957338910005</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>7807.033238910005</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>6466.958338910004</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>6566.958338910004</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>6554.258338910005</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>6767.164338910005</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>5448.165394050005</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>5049.602194050005</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>5049.602194050005</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>5508.296994050005</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>6454.423594050006</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>6454.423594050006</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>6454.423594050006</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>5976.932194050006</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>7500.333994050006</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>7500.333994050006</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>5844.773894050007</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>6646.886194050006</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>5273.891794050007</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>5006.991794050007</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-689.5921059499924</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-474.4441059499924</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2240.740294050008</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>2004.561094050008</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>2428.117794050008</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>2119.200794050008</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>2025.915294050008</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>2100.286138560008</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1802.891461439992</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-10243.82939956999</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-10049.95849956999</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-12049.95849956999</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-226065.40709061</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-226065.40709061</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-227690.07939061</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-228700.07929061</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-267939.0916196998</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-267225.4773196998</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-266970.0642196998</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-275886.3587196998</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-271803.3021196998</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-267603.1539196998</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-265179.2363196998</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-267770.8513196998</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-267770.8513196998</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-266151.2113196998</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-265728.0519196998</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-263015.5043196998</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-256220.9261719198</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-254337.0997719198</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-254489.3932719198</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-253147.3603719198</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-252509.6498719198</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-252547.7158719198</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-252544.8376719198</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-249716.8376719198</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-21 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 QTUM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>14294.56344556</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>14294.56344556</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>15776.54534556001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>15781.05956677001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>15780.81446677001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>12740.84626677001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>12428.73266677001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>12922.20176677001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>12922.20176677001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>12499.91656677001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>12499.91656677001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>11168.09866677001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>11168.09866677001</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>11168.09866677001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>11239.99866677001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>13036.29986677</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>13011.29986677</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>14350.90622649001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>12382.86662649001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>12383.79292649</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>12168.08242649001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>12168.08242649001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>12168.08242649001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>12168.08242649001</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>11998.52722649</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>11738.03922649001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>15103.07852649</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>15049.97152649</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>15307.50567173</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>15252.50567173</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>4570.989638910005</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>3424.098938910005</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>5448.165394050005</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>5049.602194050005</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>5049.602194050005</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>5508.296994050005</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>6454.423594050006</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>6454.423594050006</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>6454.423594050006</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>5976.932194050006</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>7500.333994050006</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>7500.333994050006</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>5844.773894050007</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>6646.886194050006</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>5273.891794050007</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>5006.991794050007</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-689.5921059499924</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2240.740294050008</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>2004.561094050008</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>2428.117794050008</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>2119.200794050008</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>2025.915294050008</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>2100.286138560008</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1802.891461439992</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1789.891461439992</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-10243.82939956999</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-226065.40709061</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-226065.40709061</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-227690.07939061</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-228700.07929061</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-267939.0916196998</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-267225.4773196998</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-266970.0642196998</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-276460.0084196998</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-275886.3587196998</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-275978.3587196998</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-271446.0603196998</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-271446.0603196998</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-271803.3021196998</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-271803.3021196998</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-267603.1539196998</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-265179.2363196998</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-267770.8513196998</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-267770.8513196998</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-266151.2113196998</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-265728.0519196998</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-265728.0519196998</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-265946.6744196998</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-264854.0772196997</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-264854.0772196997</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-264921.8505196997</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-266059.6777196997</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-266050.3287196998</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-263015.5043196998</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-259693.6118196998</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-256220.9261719198</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-254337.0997719198</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-254489.3932719198</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-253147.3603719198</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-252509.6498719198</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-252547.7158719198</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-252544.8376719198</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-249716.8376719198</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
